--- a/CRISP-DM Machine Learning.xlsx
+++ b/CRISP-DM Machine Learning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIJAIL BLANCO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIJAIL BLANCO\Desktop\Machine-Learning-Collaboration-CA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1CFA27-E869-4B14-A830-9B74C46AD92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EC76C7-ED61-4A74-A512-2FECD13F2A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11640" yWindow="96" windowWidth="11520" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="1" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <t>To analyze missing values and duplicates</t>
   </si>
   <si>
-    <t>PROJECT TITLE: Positive COVID Analysis</t>
-  </si>
-  <si>
     <t>Modelling</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>To review stationarity in the dataset</t>
   </si>
   <si>
-    <t>To evaluate Random Forest Regressor Model</t>
-  </si>
-  <si>
     <t>Apply Grid Search Hyperparameter Tuning</t>
   </si>
   <si>
@@ -274,6 +268,12 @@
   </si>
   <si>
     <t>To prepare the presentations</t>
+  </si>
+  <si>
+    <t>To evaluate Linear Regression</t>
+  </si>
+  <si>
+    <t>PROJECT TITLE: "Confirmed" COVID cases Analysis</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1304,10 @@
   <dimension ref="A1:BE1003"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:AQ21"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1325,7 +1325,7 @@
     <row r="1" spans="1:57" ht="30" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C1" s="106" t="s">
         <v>2</v>
@@ -1975,7 +1975,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>17</v>
@@ -2265,7 +2265,7 @@
     <row r="11" spans="1:57" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>17</v>
@@ -2474,7 +2474,7 @@
     <row r="14" spans="1:57" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>47</v>
@@ -3053,7 +3053,7 @@
     <row r="22" spans="1:57" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="4"/>
       <c r="B22" s="51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="52"/>
       <c r="D22" s="53"/>
@@ -3193,7 +3193,7 @@
     <row r="24" spans="1:57" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="4"/>
       <c r="B24" s="94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="92" t="s">
         <v>47</v>
@@ -3267,7 +3267,7 @@
     <row r="25" spans="1:57" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="4"/>
       <c r="B25" s="94" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="96" t="s">
         <v>47</v>
@@ -3409,7 +3409,7 @@
     <row r="27" spans="1:57" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="96" t="s">
         <v>50</v>
@@ -3482,7 +3482,7 @@
         <v>53</v>
       </c>
       <c r="B28" s="93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="85" t="s">
         <v>50</v>
@@ -3553,10 +3553,10 @@
     <row r="29" spans="1:57" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="4"/>
       <c r="B29" s="93" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="96" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D29" s="56">
         <v>1</v>
@@ -3762,7 +3762,7 @@
     <row r="32" spans="1:57" ht="30" customHeight="1" thickBot="1">
       <c r="A32" s="4"/>
       <c r="B32" s="95" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="97" t="s">
         <v>17</v>
@@ -3981,7 +3981,7 @@
     <row r="35" spans="1:57" ht="30" customHeight="1" thickBot="1">
       <c r="A35" s="4"/>
       <c r="B35" s="95" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" s="63" t="s">
         <v>17</v>

--- a/CRISP-DM Machine Learning.xlsx
+++ b/CRISP-DM Machine Learning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIJAIL BLANCO\Desktop\Machine-Learning-Collaboration-CA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EC76C7-ED61-4A74-A512-2FECD13F2A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171F06BA-7872-4FF8-ADB2-8D515951B2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="96" windowWidth="11520" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="1" r:id="rId1"/>
@@ -1304,10 +1304,10 @@
   <dimension ref="A1:BE1003"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="BG35" sqref="BG35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
